--- a/src/test/resources/Patient_TestData/Sandhiya-ID-1/Patient_Mytreatment/TreatmentDetails.xlsx
+++ b/src/test/resources/Patient_TestData/Sandhiya-ID-1/Patient_Mytreatment/TreatmentDetails.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
